--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Vial Number</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Precocity (1/0)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -579,7 +582,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>7</v>
@@ -621,11 +624,14 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.2</v>
+        <v>28</v>
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>333</v>
+        <v>316</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1">
@@ -864,11 +870,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28.3</v>
+        <v>27.2</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -910,11 +916,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -956,11 +962,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -999,11 +1005,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -150,7 +150,7 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Precocity (1/0)</t>
+    <t>pp</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,11 +624,11 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -870,11 +870,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.2</v>
+        <v>30.3</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -916,11 +916,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.6</v>
+        <v>31.1</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -962,11 +962,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.3</v>
+        <v>30.2</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>397</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>334</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
   <si>
     <t>Vial Number</t>
   </si>
@@ -144,20 +144,29 @@
     <t>Vial</t>
   </si>
   <si>
-    <t>PIT tag</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
     <t>pp</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>PIT Tag #</t>
+  </si>
+  <si>
+    <t>MS-222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +188,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,15 +227,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +567,7 @@
     <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1">
+    <row r="1" spans="1:23" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -544,7 +581,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -579,10 +616,10 @@
         <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>7</v>
@@ -590,8 +627,14 @@
       <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -624,17 +667,23 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29</v>
+        <v>27.2</v>
       </c>
       <c r="P2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -870,11 +919,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.3</v>
+        <v>32.9</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -916,11 +965,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.1</v>
+        <v>26.8</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -962,11 +1011,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.2</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1005,11 +1054,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Vial Number</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -552,22 +552,23 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.75" thickBot="1">
+    <row r="1" spans="1:24" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -585,56 +586,59 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -653,37 +657,37 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.2</v>
-      </c>
-      <c r="P2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Q2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>400</v>
-      </c>
-      <c r="S2">
+        <v>358</v>
+      </c>
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>44</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -704,6 +708,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -919,11 +924,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.9</v>
+        <v>31.8</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -965,7 +970,7 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
@@ -1011,11 +1016,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>28</v>
+        <v>32.9</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1054,11 +1059,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>326</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>Vial Number</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>MS-222</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -538,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -554,21 +557,22 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.75" thickBot="1">
+    <row r="1" spans="1:25" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -592,53 +596,56 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -657,37 +664,37 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="Q2">
+        <v>29.4</v>
+      </c>
+      <c r="R2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>358</v>
-      </c>
-      <c r="T2">
+        <v>355</v>
+      </c>
+      <c r="U2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>44</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -709,6 +716,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -924,11 +932,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.8</v>
+        <v>26.8</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -970,11 +978,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.5</v>
+        <v>30.9</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -1016,11 +1024,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.9</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>320</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1059,11 +1067,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.6</v>
+        <v>30.5</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>379</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Vial Number</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Test comment</t>
   </si>
 </sst>
 </file>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,14 +681,17 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>29.4</v>
+        <v>31.5</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="U2">
         <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
       </c>
       <c r="X2" t="s">
         <v>44</v>
@@ -932,11 +938,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>26.8</v>
+        <v>27.3</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -978,11 +984,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -1024,11 +1030,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.799999999999997</v>
+        <v>27.9</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1067,11 +1073,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30.5</v>
+        <v>32.4</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>318</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-tagging-cb.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB3FC8-1911-4D86-9F37-47416E182070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sample Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -171,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -543,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,81 +658,81 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
+    <row r="3" spans="1:25">
+      <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1234560001</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>31.5</v>
-      </c>
-      <c r="R2">
+        <v>32.5</v>
+      </c>
+      <c r="R3">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>343</v>
-      </c>
-      <c r="U2">
+        <v>380</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X3" t="s">
         <v>44</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,11 +741,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,53 +768,53 @@
     <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -938,11 +948,11 @@
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.3</v>
+        <v>29.7</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -984,11 +994,11 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="N7">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -1030,11 +1040,11 @@
       </c>
       <c r="M8">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>27.9</v>
+        <v>30.1</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1073,11 +1083,11 @@
       </c>
       <c r="M9">
         <f ca="1">RANDBETWEEN(250,330) / 10</f>
-        <v>32.4</v>
+        <v>25.6</v>
       </c>
       <c r="N9">
         <f ca="1">RANDBETWEEN(300,400)</f>
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
